--- a/Test performance.xlsx
+++ b/Test performance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3c4cde5a19fb9a3/Documenti/Unibo/Terzo anno/Reti di calcolatori/Esercitazioni (codice)/9 - 2019-12-12/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivana\OneDrive\Documenti\Unibo\Terzo anno\Reti di calcolatori\Esercitazioni (codice)\9 - 2019-12-12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1219A5B-D102-4A27-8D01-EA9A7E2F20C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{E1219A5B-D102-4A27-8D01-EA9A7E2F20C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F9C873E-E9C1-453B-8C95-9E4A99ACEB8C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1080D9C0-65A5-489C-8287-B847E3A210C6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Dimensione tabella</t>
   </si>
@@ -45,6 +45,21 @@
   </si>
   <si>
     <t>Naive sort</t>
+  </si>
+  <si>
+    <t>log(10)</t>
+  </si>
+  <si>
+    <t>log(100)</t>
+  </si>
+  <si>
+    <t>log(1000)</t>
+  </si>
+  <si>
+    <t>log(10000)</t>
+  </si>
+  <si>
+    <t>log(100000)</t>
   </si>
 </sst>
 </file>
@@ -151,8 +166,8 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -169,7 +184,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -192,52 +207,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>log(10)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>log(100)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>log(1000)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>log(10000)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>log(100000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Foglio1!$A$2:$A$5</c:f>
+              <c:f>Foglio1!$B$2:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>#0\ "ms"</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000</c:v>
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Foglio1!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>#0\ "ms"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>367</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-31BD-4B67-8124-2EA28CC11AFF}"/>
+              <c16:uniqueId val="{00000000-033D-4853-9B22-E0243070067D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -256,7 +276,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -279,52 +299,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>log(10)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>log(100)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>log(1000)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>log(10000)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>log(100000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Foglio1!$A$2:$A$5</c:f>
+              <c:f>Foglio1!$C$2:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>#0\ "ms"</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000</c:v>
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Foglio1!$C$2:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>#0\ "ms"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>673</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-31BD-4B67-8124-2EA28CC11AFF}"/>
+              <c16:uniqueId val="{00000001-033D-4853-9B22-E0243070067D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -343,7 +368,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -366,52 +391,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>log(10)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>log(100)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>log(1000)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>log(10000)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>log(100000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Foglio1!$A$2:$A$5</c:f>
+              <c:f>Foglio1!$D$2:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>#0\ "ms"</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000</c:v>
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Foglio1!$D$2:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>#0\ "ms"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>344</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-31BD-4B67-8124-2EA28CC11AFF}"/>
+              <c16:uniqueId val="{00000002-033D-4853-9B22-E0243070067D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -423,30 +453,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="499128888"/>
-        <c:axId val="499128568"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="499128888"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="551465144"/>
+        <c:axId val="551463544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="551465144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -468,8 +486,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Dimensione tabella</a:t>
+                  <a:t>Dimensione matrice NxN,</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> log(N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -511,8 +534,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -539,12 +562,15 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499128568"/>
+        <c:crossAx val="551463544"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="499128568"/>
+        <c:axId val="551463544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -625,14 +651,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -656,9 +676,9 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499128888"/>
+        <c:crossAx val="551465144"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -701,6 +721,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -777,7 +804,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -804,8 +831,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -906,7 +933,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -938,10 +965,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -981,23 +1008,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1102,8 +1128,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1235,20 +1261,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1262,17 +1287,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1296,23 +1310,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609598</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
+        <xdr:cNvPr id="4" name="Grafico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B1BBF2-0AC2-4BC0-8072-0382DB4AB105}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D45334-0CE6-4555-B41D-A8DE946D082E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1630,16 +1644,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E927788B-B4C1-4DF5-99CF-93DC857A1CFB}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1657,8 +1670,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>10</v>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>5</v>
@@ -1671,8 +1684,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>100</v>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>14</v>
@@ -1685,8 +1698,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1000</v>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>25</v>
@@ -1699,8 +1712,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>10000</v>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>367</v>
@@ -1710,6 +1723,20 @@
       </c>
       <c r="D5" s="3">
         <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5674</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1928</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2845</v>
       </c>
     </row>
   </sheetData>
